--- a/Software Engineering/templates/Software Design Database.xlsx
+++ b/Software Engineering/templates/Software Design Database.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\git\conquer\Software Engineering\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE06F5-FE96-4695-BEF1-8D50FE9514EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="161">
   <si>
     <t>idx</t>
   </si>
@@ -481,12 +475,39 @@
   </si>
   <si>
     <t>Glows from space. Hopefully it is gold</t>
+  </si>
+  <si>
+    <t>Appert System</t>
+  </si>
+  <si>
+    <t>Appert System.png</t>
+  </si>
+  <si>
+    <t>Cartof System</t>
+  </si>
+  <si>
+    <t>Cartof System.png</t>
+  </si>
+  <si>
+    <t>VanWeiss System</t>
+  </si>
+  <si>
+    <t>VanWeiss System.png</t>
+  </si>
+  <si>
+    <t>Do not mess with us</t>
+  </si>
+  <si>
+    <t>We only like peaceful people here</t>
+  </si>
+  <si>
+    <t>Almost time travels through space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -843,36 +864,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H47"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.85546875" style="2"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -936,7 +957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -968,7 +989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1000,7 +1021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1032,7 +1053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1096,7 +1117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1128,7 +1149,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1160,7 +1181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1192,7 +1213,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1224,7 +1245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1256,7 +1277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1288,7 +1309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1320,7 +1341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1352,7 +1373,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1384,7 +1405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1416,7 +1437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1448,7 +1469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1480,7 +1501,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1512,7 +1533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1544,7 +1565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1576,7 +1597,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1608,7 +1629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1640,7 +1661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1672,7 +1693,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1704,7 +1725,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1736,7 +1757,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1768,7 +1789,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1800,7 +1821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1832,7 +1853,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1864,7 +1885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1896,7 +1917,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1928,7 +1949,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1960,7 +1981,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1992,7 +2013,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2024,7 +2045,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2056,7 +2077,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2088,7 +2109,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2120,7 +2141,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2152,7 +2173,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2184,7 +2205,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2216,7 +2237,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2248,7 +2269,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2280,7 +2301,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2312,7 +2333,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2344,7 +2365,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2374,6 +2395,102 @@
       </c>
       <c r="J47" s="2">
         <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J49" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J50" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Software Engineering/templates/Software Design Database.xlsx
+++ b/Software Engineering/templates/Software Design Database.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\git\conquer\Software Engineering\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201E6AAE-778B-4399-8EE9-253C23334BCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +126,6 @@
     <t>gas hurricane</t>
   </si>
   <si>
-    <t>As long as you are not near this thing, you will be fine</t>
-  </si>
-  <si>
     <t>Hard Baked</t>
   </si>
   <si>
@@ -150,9 +153,6 @@
     <t>Nucular Fission</t>
   </si>
   <si>
-    <t>Your planet became a star, now there's energy</t>
-  </si>
-  <si>
     <t>Over Exposure</t>
   </si>
   <si>
@@ -183,15 +183,9 @@
     <t>Time Explosion</t>
   </si>
   <si>
-    <t>How strange, that explosion seemed to have happened in the future...</t>
-  </si>
-  <si>
     <t>Total Core Meltdown</t>
   </si>
   <si>
-    <t>Too much lava, not enough rock</t>
-  </si>
-  <si>
     <t>Known for its high amount of gasses</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t>Planet Narges</t>
   </si>
   <si>
-    <t>A bit cold, but has a great light show</t>
-  </si>
-  <si>
     <t>Planet Sistene</t>
   </si>
   <si>
@@ -297,15 +288,9 @@
     <t>Super Iodine Explosion.png</t>
   </si>
   <si>
-    <t>Spartis the name, Technologys the game</t>
-  </si>
-  <si>
     <t>Planet Gergen</t>
   </si>
   <si>
-    <t>Am I drunk, or is the air on fire?</t>
-  </si>
-  <si>
     <t>Planet Acere</t>
   </si>
   <si>
@@ -423,9 +408,6 @@
     <t>Hearon this planet is life.</t>
   </si>
   <si>
-    <t>I looks pink from space, but on the surface it is all red</t>
-  </si>
-  <si>
     <t>Look at all the carbon in the atmosphere</t>
   </si>
   <si>
@@ -441,9 +423,6 @@
     <t>There is snow all over this planet</t>
   </si>
   <si>
-    <t>A very old planet, but it will do the job</t>
-  </si>
-  <si>
     <t>Named for its ink like look</t>
   </si>
   <si>
@@ -462,12 +441,6 @@
     <t>Semi-transparent planet</t>
   </si>
   <si>
-    <t>It has its own moon, have fun</t>
-  </si>
-  <si>
-    <t>A few gas storms, but nothing our shields can't handle</t>
-  </si>
-  <si>
     <t>Just a big rock. Hopefully the core is usable</t>
   </si>
   <si>
@@ -502,12 +475,45 @@
   </si>
   <si>
     <t>Almost time travels through space</t>
+  </si>
+  <si>
+    <t>Spartis the name Technologys the game</t>
+  </si>
+  <si>
+    <t>As long as you are not near this thing you will be fine</t>
+  </si>
+  <si>
+    <t>Your planet became a star now there's energy</t>
+  </si>
+  <si>
+    <t>Am I drunk or is the air on fire?</t>
+  </si>
+  <si>
+    <t>How strange that explosion seemed to have happened in the future...</t>
+  </si>
+  <si>
+    <t>Too much lava not enough rock</t>
+  </si>
+  <si>
+    <t>A bit cold but has a great light show</t>
+  </si>
+  <si>
+    <t>I looks pink from space but on the surface it is all red</t>
+  </si>
+  <si>
+    <t>A very old planet but it will do the job</t>
+  </si>
+  <si>
+    <t>It has its own moon have fun</t>
+  </si>
+  <si>
+    <t>A few gas storms but nothing our shields can't handle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -864,36 +870,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -933,31 +939,31 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H2" s="4">
         <v>0.03</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -965,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -977,19 +983,19 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H3" s="4">
         <v>0.03</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J3" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -1009,19 +1015,19 @@
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H4" s="4">
         <v>0.03</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1041,19 +1047,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H5" s="4">
         <v>0.03</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1073,19 +1079,19 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H6" s="4">
         <v>0.03</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -1105,19 +1111,19 @@
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H7" s="4">
         <v>0.03</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1137,19 +1143,19 @@
         <v>-500</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H8" s="4">
         <v>0.03</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -1169,19 +1175,19 @@
         <v>-500</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H9" s="4">
         <v>0.03</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
@@ -1201,19 +1207,19 @@
         <v>-500</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H10" s="4">
         <v>0.03</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -1233,19 +1239,19 @@
         <v>-500</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H11" s="4">
         <v>0.03</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1253,31 +1259,31 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="F12" s="2">
         <v>-500</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H12" s="4">
         <v>0.03</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1285,31 +1291,31 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="2">
         <v>-500</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H13" s="4">
         <v>0.03</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1317,31 +1323,31 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="2">
         <v>-500</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H14" s="4">
         <v>0.03</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1349,31 +1355,31 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F15" s="2">
         <v>-500</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H15" s="4">
         <v>0.03</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1381,31 +1387,31 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F16" s="2">
         <v>-500</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H16" s="4">
         <v>0.03</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1413,31 +1419,31 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F17" s="2">
         <v>-500</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H17" s="4">
         <v>0.03</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1445,31 +1451,31 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2">
         <v>-500</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H18" s="4">
         <v>0.03</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1477,31 +1483,31 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2">
         <v>-500</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H19" s="4">
         <v>0.03</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1509,31 +1515,31 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2">
         <v>-500</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H20" s="4">
         <v>0.03</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1541,31 +1547,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2">
         <v>-500</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H21" s="4">
         <v>0.03</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1573,31 +1579,31 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="F22" s="2">
         <v>-500</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H22" s="4">
         <v>0.03</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1605,31 +1611,31 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="F23" s="2">
         <v>-500</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H23" s="4">
         <v>0.03</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1637,31 +1643,31 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="F24" s="2">
         <v>600</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H24" s="4">
         <v>0.03</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1669,31 +1675,31 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2">
         <v>1400</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H25" s="4">
         <v>0.05</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J25" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1701,31 +1707,31 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2">
         <v>1800</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H26" s="4">
         <v>0.05</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J26" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1733,31 +1739,31 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="F27" s="2">
         <v>1500</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H27" s="4">
         <v>0.05</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J27" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1765,31 +1771,31 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2">
         <v>1600</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H28" s="4">
         <v>0.05</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J28" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1797,31 +1803,31 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F29" s="2">
         <v>1300</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H29" s="4">
         <v>0.05</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J29" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1829,31 +1835,31 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F30" s="2">
         <v>1400</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H30" s="4">
         <v>0.05</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J30" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1861,31 +1867,31 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F31" s="2">
         <v>1400</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H31" s="4">
         <v>0.05</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J31" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1893,31 +1899,31 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F32" s="2">
         <v>1600</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H32" s="4">
         <v>0.05</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J32" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1925,31 +1931,31 @@
         <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F33" s="2">
         <v>1400</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H33" s="4">
         <v>0.05</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J33" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1957,31 +1963,31 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F34" s="2">
         <v>1450</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H34" s="4">
         <v>0.05</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J34" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1989,31 +1995,31 @@
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F35" s="2">
         <v>1800</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H35" s="4">
         <v>0.05</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J35" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2021,31 +2027,31 @@
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F36" s="2">
         <v>1600</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H36" s="4">
         <v>0.05</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J36" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2053,31 +2059,31 @@
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F37" s="2">
         <v>1500</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H37" s="4">
         <v>0.05</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J37" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2085,31 +2091,31 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F38" s="2">
         <v>1600</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H38" s="4">
         <v>0.05</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J38" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2117,31 +2123,31 @@
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F39" s="2">
         <v>1600</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H39" s="4">
         <v>0.05</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J39" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2149,31 +2155,31 @@
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F40" s="2">
         <v>1750</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H40" s="4">
         <v>0.05</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J40" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2181,31 +2187,31 @@
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F41" s="2">
         <v>1650</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H41" s="4">
         <v>0.05</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J41" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2213,31 +2219,31 @@
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F42" s="2">
         <v>1600</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H42" s="4">
         <v>0.05</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J42" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2245,31 +2251,31 @@
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F43" s="2">
         <v>1600</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H43" s="4">
         <v>0.05</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J43" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2277,31 +2283,31 @@
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F44" s="2">
         <v>1600</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H44" s="4">
         <v>0.05</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J44" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2309,31 +2315,31 @@
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F45" s="2">
         <v>1600</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H45" s="4">
         <v>0.05</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J45" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2341,31 +2347,31 @@
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F46" s="2">
         <v>1200</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H46" s="4">
         <v>0.05</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J46" s="2">
         <v>650</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2373,31 +2379,31 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F47" s="2">
         <v>1600</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H47" s="4">
         <v>0.05</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J47" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2405,31 +2411,31 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F48" s="2">
         <v>5</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H48" s="4">
         <v>0.03</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J48" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2437,31 +2443,31 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F49" s="2">
         <v>5</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H49" s="4">
         <v>0.03</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J49" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2469,28 +2475,28 @@
         <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F50" s="2">
         <v>5</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H50" s="4">
         <v>0.03</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J50" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
